--- a/planning_BBC.xlsx
+++ b/planning_BBC.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Délai</t>
   </si>
@@ -30,30 +33,18 @@
     <t>Comment la bactérie survit dans l'estomac et qu'est-ce qu'elle cause</t>
   </si>
   <si>
-    <t>Etudier la structure de la protéine UreB et son emplacement dans la bactérie</t>
-  </si>
-  <si>
     <t>Comment peut-on détecter pylory ?</t>
   </si>
   <si>
-    <t>Etudier les adjuvants qu'on pourrait combiner avec les épitodes (conclusion)</t>
-  </si>
-  <si>
     <t>Faire la documentation du code</t>
   </si>
   <si>
-    <t>Finir le rapport</t>
-  </si>
-  <si>
     <t>Préparer une présentation Powerpoint</t>
   </si>
   <si>
     <t>Trouver un algorithme qui permet d'extraire des épitopes à partir d'une séquence</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>Implémenter la solution proposée en phase 3…</t>
   </si>
   <si>
@@ -67,13 +58,34 @@
   </si>
   <si>
     <t>Doc, rapport, présentation</t>
+  </si>
+  <si>
+    <t>Etudier la structure de la protéine UreB</t>
+  </si>
+  <si>
+    <t>En cours</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>Déterminer la liste des étapes à suivre (pseudo code) pour arriver à la solution</t>
+  </si>
+  <si>
+    <t>Chercher éventuellement des critères (régions géographique par exemple) (si temps OK)</t>
+  </si>
+  <si>
+    <t>Expliquer chacune de ces étapes dans le rapport</t>
+  </si>
+  <si>
+    <t>Finir le rapport (parler des adjuvants dans la conclusion du rapport)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +101,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -122,12 +158,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -423,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,110 +505,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3">
-        <v>42479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="3">
-        <v>42500</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>42479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3">
-        <v>42521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>42535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="C12" s="3">
-        <v>42535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/planning_BBC.xlsx
+++ b/planning_BBC.xlsx
@@ -69,9 +69,6 @@
     <t>Terminé</t>
   </si>
   <si>
-    <t>Déterminer la liste des étapes à suivre (pseudo code) pour arriver à la solution</t>
-  </si>
-  <si>
     <t>Chercher éventuellement des critères (régions géographique par exemple) (si temps OK)</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Finir le rapport (parler des adjuvants dans la conclusion du rapport)</t>
+  </si>
+  <si>
+    <t>Déterminer la liste des étapes à suivre  pour arriver à la solution</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3">
@@ -550,7 +550,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -567,13 +567,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -590,7 +590,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -607,7 +607,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/planning_BBC.xlsx
+++ b/planning_BBC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Délai</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Déterminer la liste des étapes à suivre  pour arriver à la solution</t>
+  </si>
+  <si>
+    <t>Formalité</t>
+  </si>
+  <si>
+    <t>Préparer  la présentation intermédiaire du 26.04.2016</t>
   </si>
 </sst>
 </file>
@@ -491,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,62 +562,73 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
+        <v>42485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C12" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C16" s="3">
         <v>42521</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C19" s="3">
         <v>42535</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
     </row>
